--- a/df.xlsx
+++ b/df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>姓名</t>
   </si>
@@ -34,6 +34,15 @@
     <t>date</t>
   </si>
   <si>
+    <t>proActual</t>
+  </si>
+  <si>
+    <t>proStandard</t>
+  </si>
+  <si>
+    <t>dateDiff</t>
+  </si>
+  <si>
     <t>a1</t>
   </si>
   <si>
@@ -59,12 +68,6 @@
   </si>
   <si>
     <t>b4</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
   </si>
   <si>
     <t>甲</t>
@@ -425,283 +428,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>0.1212121212121212</v>
+      </c>
+      <c r="H2">
+        <v>0.14</v>
+      </c>
+      <c r="I2">
+        <v>-0.0187878787878788</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>0.1515151515151515</v>
+      </c>
+      <c r="H3">
+        <v>0.14</v>
+      </c>
+      <c r="I3">
+        <v>0.01151515151515151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>0.1212121212121212</v>
+      </c>
+      <c r="H4">
+        <v>0.14</v>
+      </c>
+      <c r="I4">
+        <v>-0.0187878787878788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>0.1212121212121212</v>
+      </c>
+      <c r="H5">
+        <v>0.14</v>
+      </c>
+      <c r="I5">
+        <v>-0.0187878787878788</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>0.1515151515151515</v>
+      </c>
+      <c r="H6">
+        <v>0.14</v>
+      </c>
+      <c r="I6">
+        <v>0.01151515151515151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="H7">
+        <v>0.075</v>
+      </c>
+      <c r="I7">
+        <v>0.01590909090909091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G8">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="H8">
+        <v>0.075</v>
+      </c>
+      <c r="I8">
+        <v>-0.01439393939393939</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="G9">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="H9">
+        <v>0.075</v>
+      </c>
+      <c r="I9">
+        <v>0.01590909090909091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="H10">
+        <v>0.075</v>
+      </c>
+      <c r="I10">
+        <v>0.01590909090909091</v>
       </c>
     </row>
   </sheetData>

--- a/df.xlsx
+++ b/df.xlsx
@@ -480,16 +480,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1212121212121212</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="H2">
         <v>0.14</v>
       </c>
       <c r="I2">
-        <v>-0.0187878787878788</v>
+        <v>-0.06307692307692309</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>0.1515151515151515</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="H3">
         <v>0.14</v>
       </c>
       <c r="I3">
-        <v>0.01151515151515151</v>
+        <v>0.01384615384615384</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -538,16 +538,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0.1212121212121212</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="H4">
         <v>0.14</v>
       </c>
       <c r="I4">
-        <v>-0.0187878787878788</v>
+        <v>0.01384615384615384</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>0.1212121212121212</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="H5">
         <v>0.14</v>
       </c>
       <c r="I5">
-        <v>-0.0187878787878788</v>
+        <v>0.01384615384615384</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -596,16 +596,16 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>0.1515151515151515</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="H6">
         <v>0.14</v>
       </c>
       <c r="I6">
-        <v>0.01151515151515151</v>
+        <v>0.01384615384615384</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -625,16 +625,16 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.09090909090909091</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="H7">
         <v>0.075</v>
       </c>
       <c r="I7">
-        <v>0.01590909090909091</v>
+        <v>0.00192307692307693</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -654,16 +654,16 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.06060606060606061</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="H8">
         <v>0.075</v>
       </c>
       <c r="I8">
-        <v>-0.01439393939393939</v>
+        <v>0.00192307692307693</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.09090909090909091</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="H9">
         <v>0.075</v>
       </c>
       <c r="I9">
-        <v>0.01590909090909091</v>
+        <v>0.00192307692307693</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.09090909090909091</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="H10">
         <v>0.075</v>
       </c>
       <c r="I10">
-        <v>0.01590909090909091</v>
+        <v>0.00192307692307693</v>
       </c>
     </row>
   </sheetData>

--- a/df.xlsx
+++ b/df.xlsx
@@ -480,16 +480,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>0.07692307692307693</v>
+        <v>0.16</v>
       </c>
       <c r="H2">
         <v>0.14</v>
       </c>
       <c r="I2">
-        <v>-0.06307692307692309</v>
+        <v>0.01999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -509,16 +509,16 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>0.1538461538461539</v>
+        <v>0.12</v>
       </c>
       <c r="H3">
         <v>0.14</v>
       </c>
       <c r="I3">
-        <v>0.01384615384615384</v>
+        <v>-0.02000000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -538,16 +538,16 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>0.1538461538461539</v>
+        <v>0.16</v>
       </c>
       <c r="H4">
         <v>0.14</v>
       </c>
       <c r="I4">
-        <v>0.01384615384615384</v>
+        <v>0.01999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>0.1538461538461539</v>
+        <v>0.12</v>
       </c>
       <c r="H5">
         <v>0.14</v>
       </c>
       <c r="I5">
-        <v>0.01384615384615384</v>
+        <v>-0.02000000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -596,16 +596,16 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>0.1538461538461539</v>
+        <v>0.12</v>
       </c>
       <c r="H6">
         <v>0.14</v>
       </c>
       <c r="I6">
-        <v>0.01384615384615384</v>
+        <v>-0.02000000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -625,16 +625,16 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>0.07692307692307693</v>
+        <v>0.08</v>
       </c>
       <c r="H7">
         <v>0.075</v>
       </c>
       <c r="I7">
-        <v>0.00192307692307693</v>
+        <v>0.005000000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -654,16 +654,16 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>0.07692307692307693</v>
+        <v>0.08</v>
       </c>
       <c r="H8">
         <v>0.075</v>
       </c>
       <c r="I8">
-        <v>0.00192307692307693</v>
+        <v>0.005000000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>0.07692307692307693</v>
+        <v>0.08</v>
       </c>
       <c r="H9">
         <v>0.075</v>
       </c>
       <c r="I9">
-        <v>0.00192307692307693</v>
+        <v>0.005000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>0.07692307692307693</v>
+        <v>0.08</v>
       </c>
       <c r="H10">
         <v>0.075</v>
       </c>
       <c r="I10">
-        <v>0.00192307692307693</v>
+        <v>0.005000000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/df.xlsx
+++ b/df.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alpha\Desktop\planwork\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
-    <t>姓名</t>
-  </si>
-  <si>
     <t>skill</t>
   </si>
   <si>
@@ -71,17 +73,21 @@
   </si>
   <si>
     <t>甲</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -89,8 +95,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -136,15 +149,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -186,7 +207,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,9 +239,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,6 +274,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,48 +450,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -486,18 +509,18 @@
         <v>0.16</v>
       </c>
       <c r="H2">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I2">
-        <v>0.01999999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>1.999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -515,18 +538,18 @@
         <v>0.12</v>
       </c>
       <c r="H3">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I3">
-        <v>-0.02000000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>-2.0000000000000021E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -544,18 +567,18 @@
         <v>0.16</v>
       </c>
       <c r="H4">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I4">
-        <v>0.01999999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>1.999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -573,18 +596,18 @@
         <v>0.12</v>
       </c>
       <c r="H5">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I5">
-        <v>-0.02000000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>-2.0000000000000021E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -602,18 +625,18 @@
         <v>0.12</v>
       </c>
       <c r="H6">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I6">
-        <v>-0.02000000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-2.0000000000000021E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -631,18 +654,18 @@
         <v>0.08</v>
       </c>
       <c r="H7">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I7">
-        <v>0.005000000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>5.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -660,18 +683,18 @@
         <v>0.08</v>
       </c>
       <c r="H8">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I8">
-        <v>0.005000000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>5.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -689,18 +712,18 @@
         <v>0.08</v>
       </c>
       <c r="H9">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I9">
-        <v>0.005000000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>5.0000000000000036E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -718,13 +741,14 @@
         <v>0.08</v>
       </c>
       <c r="H10">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I10">
-        <v>0.005000000000000004</v>
+        <v>5.0000000000000036E-3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>